--- a/testSKU.xlsx
+++ b/testSKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godrej-my.sharepoint.com/personal/sparmar_godrej_com/Documents/Desktop/Order_run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{9C7935D8-DF3D-4B3E-BF9F-9FA3A6B7439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B2C86F9-7FF9-46FF-8EE3-85252573B1EC}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{9C7935D8-DF3D-4B3E-BF9F-9FA3A6B7439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA952F8E-0B00-47E4-8A57-0DC157475C21}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CA2B2D0-0B27-4A95-A18C-B52BF2162851}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="196">
   <si>
     <t>SKU</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>ALMIRAHSANDWARDROBES</t>
-  </si>
-  <si>
     <t>FSN</t>
   </si>
   <si>
@@ -65,46 +62,571 @@
     <t>AMZ Mark</t>
   </si>
   <si>
-    <t>SLIM00306</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>B07HH5X51K</t>
-  </si>
-  <si>
-    <t>30161803SD01017</t>
-  </si>
-  <si>
-    <t>B0BJ6LC3WZ</t>
-  </si>
-  <si>
-    <t>56101502SD01894</t>
-  </si>
-  <si>
-    <t>B0C65VMBLT</t>
-  </si>
-  <si>
-    <t>SOFASANDRECLINERS</t>
-  </si>
-  <si>
-    <t>56101502SD01896</t>
-  </si>
-  <si>
-    <t>B0C664QFHT</t>
-  </si>
-  <si>
-    <t>56101531SD00040</t>
-  </si>
-  <si>
-    <t>B0CDXRGR4R</t>
-  </si>
-  <si>
-    <t>SHOERACKS</t>
+    <t>56101515SD00684</t>
+  </si>
+  <si>
+    <t>30161803SD01774</t>
+  </si>
+  <si>
+    <t>56101522SD04901</t>
+  </si>
+  <si>
+    <t>56101515SD00832</t>
+  </si>
+  <si>
+    <t>56101509SD00702</t>
+  </si>
+  <si>
+    <t>56101509SD00703</t>
+  </si>
+  <si>
+    <t>56101515SD00685</t>
+  </si>
+  <si>
+    <t>56101502SD04420</t>
+  </si>
+  <si>
+    <t>56101509SD00701</t>
+  </si>
+  <si>
+    <t>56101515SD00833</t>
+  </si>
+  <si>
+    <t>56101509SD00639</t>
+  </si>
+  <si>
+    <t>56101502SD04408</t>
+  </si>
+  <si>
+    <t>WOG000401-5610152APO03346</t>
+  </si>
+  <si>
+    <t>56101515SD00686</t>
+  </si>
+  <si>
+    <t>30161803SD01792</t>
+  </si>
+  <si>
+    <t>56101515SD00687</t>
+  </si>
+  <si>
+    <t>56101501SD00082</t>
+  </si>
+  <si>
+    <t>56101597SD00081</t>
+  </si>
+  <si>
+    <t>56121403SD00319</t>
+  </si>
+  <si>
+    <t>56101531SD00061</t>
+  </si>
+  <si>
+    <t>56101502SD04406</t>
+  </si>
+  <si>
+    <t>56101502SD04407</t>
+  </si>
+  <si>
+    <t>30161803SD01757</t>
+  </si>
+  <si>
+    <t>SLIM00301</t>
+  </si>
+  <si>
+    <t>SLIM00001</t>
+  </si>
+  <si>
+    <t>SLIM00780</t>
+  </si>
+  <si>
+    <t>SLIM00303</t>
+  </si>
+  <si>
+    <t>SLIM00045F</t>
+  </si>
+  <si>
+    <t>SLIM00078N</t>
+  </si>
+  <si>
+    <t>30161803SD01741</t>
+  </si>
+  <si>
+    <t>SLIM00003</t>
+  </si>
+  <si>
+    <t>30161803SD00279</t>
+  </si>
+  <si>
+    <t>30161803SD01759</t>
+  </si>
+  <si>
+    <t>SLIM00782</t>
+  </si>
+  <si>
+    <t>SLIM00305</t>
+  </si>
+  <si>
+    <t>30161803SD00280</t>
+  </si>
+  <si>
+    <t>30161803SD01755</t>
+  </si>
+  <si>
+    <t>SLIM00319</t>
+  </si>
+  <si>
+    <t>30161803SD01761</t>
+  </si>
+  <si>
+    <t>SLIM00073</t>
+  </si>
+  <si>
+    <t>30161803SD00248</t>
+  </si>
+  <si>
+    <t>SLIM00030</t>
+  </si>
+  <si>
+    <t>SLIM00341</t>
+  </si>
+  <si>
+    <t>SLIM00781</t>
+  </si>
+  <si>
+    <t>SLIM00761</t>
+  </si>
+  <si>
+    <t>SLIM00013F</t>
+  </si>
+  <si>
+    <t>30161803SD00842</t>
+  </si>
+  <si>
+    <t>SLIM00075</t>
+  </si>
+  <si>
+    <t>SLIM00028</t>
+  </si>
+  <si>
+    <t>56101508SD08203</t>
+  </si>
+  <si>
+    <t>56101508SD08189</t>
+  </si>
+  <si>
+    <t>56101508SD08210</t>
+  </si>
+  <si>
+    <t>56101508SD08193</t>
+  </si>
+  <si>
+    <t>56101508SD08207</t>
+  </si>
+  <si>
+    <t>56101508SD08201</t>
+  </si>
+  <si>
+    <t>56101508SD08204</t>
+  </si>
+  <si>
+    <t>56101508SD08209</t>
+  </si>
+  <si>
+    <t>56101508SD08194</t>
+  </si>
+  <si>
+    <t>56101508SD08195</t>
+  </si>
+  <si>
+    <t>56101508SD08191</t>
+  </si>
+  <si>
+    <t>SLIM00093F</t>
+  </si>
+  <si>
+    <t>30161803SD00637</t>
+  </si>
+  <si>
+    <t>SLIM00302</t>
+  </si>
+  <si>
+    <t>SLIM00006N</t>
+  </si>
+  <si>
+    <t>30161803SD00980</t>
+  </si>
+  <si>
+    <t>SLIM00086</t>
+  </si>
+  <si>
+    <t>SLIM00039</t>
+  </si>
+  <si>
+    <t>30161803SD01758</t>
+  </si>
+  <si>
+    <t>SLIM00048F</t>
+  </si>
+  <si>
+    <t>SLIM00019</t>
+  </si>
+  <si>
+    <t>SLIM00014F</t>
+  </si>
+  <si>
+    <t>SLIM00310</t>
+  </si>
+  <si>
+    <t>SLIM00812</t>
+  </si>
+  <si>
+    <t>SLIM00777</t>
+  </si>
+  <si>
+    <t>SLIM00016F</t>
+  </si>
+  <si>
+    <t>30161803SD01762</t>
+  </si>
+  <si>
+    <t>SLIM00776</t>
+  </si>
+  <si>
+    <t>SLIM00077</t>
+  </si>
+  <si>
+    <t>SLIM00337</t>
+  </si>
+  <si>
+    <t>SLIM00011</t>
+  </si>
+  <si>
+    <t>30161803SD01676</t>
+  </si>
+  <si>
+    <t>30161803SD00232</t>
+  </si>
+  <si>
+    <t>30161803SD01688</t>
+  </si>
+  <si>
+    <t>30161803SD01624</t>
+  </si>
+  <si>
+    <t>30161803SD00251</t>
+  </si>
+  <si>
+    <t>SLIM00014</t>
+  </si>
+  <si>
+    <t>SLIM00042N</t>
+  </si>
+  <si>
+    <t>30161803SD00338</t>
+  </si>
+  <si>
+    <t>30161803SD01738</t>
+  </si>
+  <si>
+    <t>SLIM00074</t>
+  </si>
+  <si>
+    <t>SLIM00037</t>
+  </si>
+  <si>
+    <t>SLIM00005F</t>
+  </si>
+  <si>
+    <t>SLIM00350</t>
+  </si>
+  <si>
+    <t>B0CY2SCKY5</t>
+  </si>
+  <si>
+    <t>B0D2P23SHN</t>
+  </si>
+  <si>
+    <t>B0C9HYYDLZ</t>
+  </si>
+  <si>
+    <t>B0D8L5R1VF</t>
+  </si>
+  <si>
+    <t>B0D8QHPS6T</t>
+  </si>
+  <si>
+    <t>B0D8QJ52PS</t>
+  </si>
+  <si>
+    <t>B0CY2M4QNY</t>
+  </si>
+  <si>
+    <t>B0D9NXJ5H6</t>
+  </si>
+  <si>
+    <t>B0D8QHPLKB</t>
+  </si>
+  <si>
+    <t>B0D8L554XD</t>
+  </si>
+  <si>
+    <t>B0CTMCX46Q</t>
+  </si>
+  <si>
+    <t>B0D3QHQ2F5</t>
+  </si>
+  <si>
+    <t>B0D8JFV4V6</t>
+  </si>
+  <si>
+    <t>B0D9M44VMY</t>
+  </si>
+  <si>
+    <t>B0D6BM21LQ</t>
+  </si>
+  <si>
+    <t>B0D492P9RQ</t>
+  </si>
+  <si>
+    <t>B0D6BKFDP9</t>
+  </si>
+  <si>
+    <t>B0D95PFMZ9</t>
+  </si>
+  <si>
+    <t>B0D95P4TBZ</t>
+  </si>
+  <si>
+    <t>B0D95P1CXB</t>
+  </si>
+  <si>
+    <t>B0D95NZX87</t>
+  </si>
+  <si>
+    <t>B0D8JFDN9T</t>
+  </si>
+  <si>
+    <t>B0D8JF3GZ5</t>
+  </si>
+  <si>
+    <t>B0BJ6LPKTM</t>
+  </si>
+  <si>
+    <t>B07WX2PS9H</t>
+  </si>
+  <si>
+    <t>B07HH51XTL</t>
+  </si>
+  <si>
+    <t>B08QYLPZNQ</t>
+  </si>
+  <si>
+    <t>B07XYCLRP8</t>
+  </si>
+  <si>
+    <t>B0CT8QWZG2</t>
+  </si>
+  <si>
+    <t>B092914VTQ</t>
+  </si>
+  <si>
+    <t>B0D2LD7L9S</t>
+  </si>
+  <si>
+    <t>B07HHF46FL</t>
+  </si>
+  <si>
+    <t>B083FXMTYM</t>
+  </si>
+  <si>
+    <t>B0D2R3YWGH</t>
+  </si>
+  <si>
+    <t>B08QYSJTL1</t>
+  </si>
+  <si>
+    <t>B07XYBTQVM</t>
+  </si>
+  <si>
+    <t>B084TNDP3Q</t>
+  </si>
+  <si>
+    <t>B0D2R24THD</t>
+  </si>
+  <si>
+    <t>B07HQRC2RR</t>
+  </si>
+  <si>
+    <t>B0D2R6NCP6</t>
+  </si>
+  <si>
+    <t>B07HQQ9DN7</t>
+  </si>
+  <si>
+    <t>B07JXGWXW3</t>
+  </si>
+  <si>
+    <t>B07WRRY2RG</t>
+  </si>
+  <si>
+    <t>B07HQRFYPX</t>
+  </si>
+  <si>
+    <t>B0929557F2</t>
+  </si>
+  <si>
+    <t>B09292VKN8</t>
+  </si>
+  <si>
+    <t>B0CW9Y22SM</t>
+  </si>
+  <si>
+    <t>B09QGNQGFJ</t>
+  </si>
+  <si>
+    <t>B07HQNYRZ4</t>
+  </si>
+  <si>
+    <t>B07HH9LK81</t>
+  </si>
+  <si>
+    <t>B0CZ8SSNJN</t>
+  </si>
+  <si>
+    <t>B0CZ8WMQFY</t>
+  </si>
+  <si>
+    <t>B0CZ9B5L1B</t>
+  </si>
+  <si>
+    <t>B0CZ8WS9Y3</t>
+  </si>
+  <si>
+    <t>B0CZ9BVR6B</t>
+  </si>
+  <si>
+    <t>B0CZ8Z15KN</t>
+  </si>
+  <si>
+    <t>B0CZ8ZK8QB</t>
+  </si>
+  <si>
+    <t>B0CZ8YNTL3</t>
+  </si>
+  <si>
+    <t>B0CZ8ZJK5W</t>
+  </si>
+  <si>
+    <t>B0CZ8ZJWC6</t>
+  </si>
+  <si>
+    <t>B0CZ95DSTD</t>
+  </si>
+  <si>
+    <t>B0CT8QVMQQ</t>
+  </si>
+  <si>
+    <t>B07L6Z63MF</t>
+  </si>
+  <si>
+    <t>B07XYCH67X</t>
+  </si>
+  <si>
+    <t>B09293L7JJ</t>
+  </si>
+  <si>
+    <t>B0BLVN1YS5</t>
+  </si>
+  <si>
+    <t>B07HQNTS5R</t>
+  </si>
+  <si>
+    <t>B07HQQKVFX</t>
+  </si>
+  <si>
+    <t>B0D2QYTL92</t>
+  </si>
+  <si>
+    <t>B0CT8S9L9J</t>
+  </si>
+  <si>
+    <t>B07HH5K3DJ</t>
+  </si>
+  <si>
+    <t>B0CW9XT2K2</t>
+  </si>
+  <si>
+    <t>B07WTWR87X</t>
+  </si>
+  <si>
+    <t>B08QZF8948</t>
+  </si>
+  <si>
+    <t>B092943XQW</t>
+  </si>
+  <si>
+    <t>B0CW9VV3B6</t>
+  </si>
+  <si>
+    <t>B0D2R5YM93</t>
+  </si>
+  <si>
+    <t>B08QZCVXCP</t>
+  </si>
+  <si>
+    <t>B07HQQL1KX</t>
+  </si>
+  <si>
+    <t>B07HQQM38L</t>
+  </si>
+  <si>
+    <t>B07HHGL6FP</t>
+  </si>
+  <si>
+    <t>B0CWVFW1MG</t>
+  </si>
+  <si>
+    <t>B07JMBKRCH</t>
+  </si>
+  <si>
+    <t>B0CWVDJ1F1</t>
+  </si>
+  <si>
+    <t>B0CXF1K2V8</t>
+  </si>
+  <si>
+    <t>B07MVDPJ2C</t>
+  </si>
+  <si>
+    <t>B07HH56633</t>
+  </si>
+  <si>
+    <t>B09291Q2MG</t>
+  </si>
+  <si>
+    <t>B07L711V6V</t>
+  </si>
+  <si>
+    <t>B0D3LYYC25</t>
+  </si>
+  <si>
+    <t>B07HQWWY5S</t>
+  </si>
+  <si>
+    <t>B07HQNH965</t>
+  </si>
+  <si>
+    <t>B0CT8S76DN</t>
+  </si>
+  <si>
+    <t>B07HQXNBB7</t>
   </si>
 </sst>
 </file>
@@ -142,14 +664,254 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -500,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96C5F2-303F-48FC-B982-E7C37D4F31F1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -538,108 +1300,1638 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A6">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A2:A12 A14:A95">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A12 A14:A95">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:E73">
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:E90">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91:E95">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E71">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E90">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testSKU.xlsx
+++ b/testSKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sparmar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1F3817-E297-40AA-84C2-E8663660A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46512509-12BA-40BB-92E7-B8ACF8B3F89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CA2B2D0-0B27-4A95-A18C-B52BF2162851}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>SKU</t>
   </si>
@@ -77,33 +77,6 @@
     <t>56101522SD04901</t>
   </si>
   <si>
-    <t>56101515SD00832</t>
-  </si>
-  <si>
-    <t>56101509SD00702</t>
-  </si>
-  <si>
-    <t>56101509SD00703</t>
-  </si>
-  <si>
-    <t>56101515SD00685</t>
-  </si>
-  <si>
-    <t>56101502SD04420</t>
-  </si>
-  <si>
-    <t>56101509SD00701</t>
-  </si>
-  <si>
-    <t>56101515SD00833</t>
-  </si>
-  <si>
-    <t>56101509SD00639</t>
-  </si>
-  <si>
-    <t>56101502SD04408</t>
-  </si>
-  <si>
     <t>B0CY2SCKY5</t>
   </si>
   <si>
@@ -111,36 +84,6 @@
   </si>
   <si>
     <t>B0C9HYYDLZ</t>
-  </si>
-  <si>
-    <t>B0D8L5R1VF</t>
-  </si>
-  <si>
-    <t>B0D8QHPS6T</t>
-  </si>
-  <si>
-    <t>B0D8QJ52PS</t>
-  </si>
-  <si>
-    <t>B0CY2M4QNY</t>
-  </si>
-  <si>
-    <t>B0D9NXJ5H6</t>
-  </si>
-  <si>
-    <t>B0D8QHPLKB</t>
-  </si>
-  <si>
-    <t>B0D8L554XD</t>
-  </si>
-  <si>
-    <t>B0CTMCX46Q</t>
-  </si>
-  <si>
-    <t>B0D3QHQ2F5</t>
-  </si>
-  <si>
-    <t>B0D8JFV4V6</t>
   </si>
 </sst>
 </file>
@@ -185,27 +128,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -566,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA96C5F2-303F-48FC-B982-E7C37D4F31F1}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -633,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -650,190 +573,16 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="duplicateValues" dxfId="2" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A12 A14">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E14">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
